--- a/examples/1928+738/2024-12-13/Pol_LL/mf/model_params.xlsx
+++ b/examples/1928+738/2024-12-13/Pol_LL/mf/model_params.xlsx
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4712563148449522</v>
+        <v>0.4692228675673276</v>
       </c>
       <c r="C2">
-        <v>4.995187463269095</v>
+        <v>4.996040738342357</v>
       </c>
       <c r="D2">
-        <v>0.4797505739052541</v>
+        <v>0.4770832522852384</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -629,13 +629,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1140866074924223</v>
+        <v>0.1288475515537102</v>
       </c>
       <c r="C3">
-        <v>1.712546482247267</v>
+        <v>1.750311358838711</v>
       </c>
       <c r="D3">
-        <v>0.1674498759783667</v>
+        <v>0.1666698473193706</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -646,13 +646,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1003802870548657</v>
+        <v>0.09553551337854087</v>
       </c>
       <c r="C4">
-        <v>0.1409757595125439</v>
+        <v>0.1062857980588036</v>
       </c>
       <c r="D4">
-        <v>0.0561414142039684</v>
+        <v>0.06698908248742816</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -663,13 +663,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.08145171883897384</v>
+        <v>0.07285965512087378</v>
       </c>
       <c r="C5">
-        <v>-1.991949630237688</v>
+        <v>-1.990723143573942</v>
       </c>
       <c r="D5">
-        <v>0.06066603171742613</v>
+        <v>0.05295554298437932</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -680,13 +680,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.23208732451377</v>
+        <v>1.975771205155468</v>
       </c>
       <c r="C6">
-        <v>35.24673610168165</v>
+        <v>34.59524088601066</v>
       </c>
       <c r="D6">
-        <v>2.226599827219907</v>
+        <v>2.214728072043442</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -697,13 +697,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04111193397709095</v>
+        <v>0.03639094870890996</v>
       </c>
       <c r="C7">
-        <v>-0.2415079535147007</v>
+        <v>-0.2535075863242687</v>
       </c>
       <c r="D7">
-        <v>0.04101086193391074</v>
+        <v>0.04079220076880008</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -714,13 +714,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08575507548058708</v>
+        <v>0.1005112135835453</v>
       </c>
       <c r="C8">
-        <v>0.3866196231669359</v>
+        <v>0.4268079317141</v>
       </c>
       <c r="D8">
-        <v>0.1156677998036</v>
+        <v>0.1372821361658785</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -731,13 +731,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2810572296038991</v>
+        <v>0.3567750186422688</v>
       </c>
       <c r="C9">
-        <v>0.8998871236837692</v>
+        <v>0.7661508175459714</v>
       </c>
       <c r="D9">
-        <v>0.2241452123554931</v>
+        <v>0.2278394087731496</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -748,13 +748,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07732929225472496</v>
+        <v>0.07417024298428931</v>
       </c>
       <c r="C10">
-        <v>0.5955790245857459</v>
+        <v>0.5665654864326503</v>
       </c>
       <c r="D10">
-        <v>0.08861266330069684</v>
+        <v>0.08706863894746719</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -765,13 +765,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1679308178680783</v>
+        <v>0.1696743712325821</v>
       </c>
       <c r="C11">
-        <v>-1.578891273542699</v>
+        <v>-1.48063086667628</v>
       </c>
       <c r="D11">
-        <v>0.1639351950021175</v>
+        <v>0.1624628896891394</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -782,13 +782,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2147683689472974</v>
+        <v>0.2064859793700204</v>
       </c>
       <c r="C12">
-        <v>-3.538872636759598</v>
+        <v>-3.476038828579527</v>
       </c>
       <c r="D12">
-        <v>0.2214408527077052</v>
+        <v>0.2148222998111233</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -799,13 +799,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>49.40543797431509</v>
+        <v>50.01138358042323</v>
       </c>
       <c r="C13">
-        <v>73.87084305294793</v>
+        <v>74.50771046725838</v>
       </c>
       <c r="D13">
-        <v>52.52899119778962</v>
+        <v>52.04730767672072</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -816,13 +816,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4638990399957033</v>
+        <v>0.4695466161758703</v>
       </c>
       <c r="C14">
-        <v>-0.0009740191966802993</v>
+        <v>0.003471896745606536</v>
       </c>
       <c r="D14">
-        <v>0.4750541682053345</v>
+        <v>0.469856128257669</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -833,13 +833,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2100335231612709</v>
+        <v>0.2226412861696137</v>
       </c>
       <c r="C15">
-        <v>3.513309732305301</v>
+        <v>3.41479903906337</v>
       </c>
       <c r="D15">
-        <v>0.1568610999521418</v>
+        <v>0.188275419120584</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -850,13 +850,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0446238688169798</v>
+        <v>0.04431247714287256</v>
       </c>
       <c r="C16">
-        <v>0.2886577648553313</v>
+        <v>0.2966954746088765</v>
       </c>
       <c r="D16">
-        <v>0.03638363568784586</v>
+        <v>0.03710791833455396</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -867,13 +867,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.008464873537112595</v>
+        <v>0.008518021020835674</v>
       </c>
       <c r="C17">
-        <v>0.03127460856255611</v>
+        <v>0.02351192393616226</v>
       </c>
       <c r="D17">
-        <v>0.008343374116922875</v>
+        <v>0.008535630711734115</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -884,13 +884,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.007054995525719088</v>
+        <v>0.006947798552141782</v>
       </c>
       <c r="C18">
-        <v>-0.5133110032059697</v>
+        <v>-0.5122595164182961</v>
       </c>
       <c r="D18">
-        <v>0.006877824364873275</v>
+        <v>0.007470716245671083</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -901,13 +901,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.04674266589139586</v>
+        <v>0.04672164329397877</v>
       </c>
       <c r="C19">
-        <v>-1.539618629976237</v>
+        <v>-1.508749162586997</v>
       </c>
       <c r="D19">
-        <v>0.05028919721056169</v>
+        <v>0.04836532156758966</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -918,13 +918,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>47.99347133986585</v>
+        <v>50.26624419965507</v>
       </c>
       <c r="C20">
-        <v>72.56647915875482</v>
+        <v>74.63310349115844</v>
       </c>
       <c r="D20">
-        <v>53.62131966045384</v>
+        <v>51.84200227721732</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -935,13 +935,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4687530778780415</v>
+        <v>0.4663029729540332</v>
       </c>
       <c r="C21">
-        <v>0.9923854549852843</v>
+        <v>0.000394600063790561</v>
       </c>
       <c r="D21">
-        <v>0.4738153389862173</v>
+        <v>0.4735322572807946</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0156119405207235</v>
+        <v>0.003708093428155396</v>
       </c>
       <c r="C22">
-        <v>0.1386907994083722</v>
+        <v>0.1249454388954692</v>
       </c>
       <c r="D22">
-        <v>0.01914733643433209</v>
+        <v>0.003825030145521643</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -969,13 +969,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2078628086598062</v>
+        <v>0.1933938511175239</v>
       </c>
       <c r="C23">
-        <v>1.907114355121382</v>
+        <v>1.988950949562532</v>
       </c>
       <c r="D23">
-        <v>0.2003213500251271</v>
+        <v>0.1872634687225707</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -986,13 +986,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.04341899875289013</v>
+        <v>0.04157445189158082</v>
       </c>
       <c r="C24">
-        <v>1.971062644308914</v>
+        <v>1.948051762774753</v>
       </c>
       <c r="D24">
-        <v>0.04120886221070874</v>
+        <v>0.04124029328118994</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -1003,13 +1003,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.06247940621918247</v>
+        <v>0.06563840837471346</v>
       </c>
       <c r="C25">
-        <v>-6.758935599103779</v>
+        <v>-6.707413069517536</v>
       </c>
       <c r="D25">
-        <v>0.06706248308941198</v>
+        <v>0.06381163157698744</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -1020,13 +1020,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.655431291453199</v>
+        <v>0.1229821994034046</v>
       </c>
       <c r="C26">
-        <v>-3.278607349225111</v>
+        <v>-1.588225812925803</v>
       </c>
       <c r="D26">
-        <v>0.7591024181380703</v>
+        <v>0.1111857232882634</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -1037,13 +1037,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.067851139085857</v>
+        <v>48.97137612906809</v>
       </c>
       <c r="C27">
-        <v>24.58280211670172</v>
+        <v>73.34460934066549</v>
       </c>
       <c r="D27">
-        <v>1.134268846677642</v>
+        <v>52.96324408617446</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -1054,13 +1054,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4742509434476397</v>
+        <v>0.469947806835736</v>
       </c>
       <c r="C28">
-        <v>0.01024499922323955</v>
+        <v>0.003175455136962659</v>
       </c>
       <c r="D28">
-        <v>0.4665676207044173</v>
+        <v>0.4722507133938964</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -1071,13 +1071,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.003291170271566769</v>
+        <v>0.003238541008896954</v>
       </c>
       <c r="C29">
-        <v>0.01927117618123495</v>
+        <v>0.01833221286903607</v>
       </c>
       <c r="D29">
-        <v>0.00373547082222157</v>
+        <v>0.003920256876672232</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
@@ -1088,13 +1088,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7111741044572248</v>
+        <v>0.7876729866903558</v>
       </c>
       <c r="C30">
-        <v>3.973093516265735</v>
+        <v>3.720237383630504</v>
       </c>
       <c r="D30">
-        <v>0.7562638536943114</v>
+        <v>0.8082329581918422</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -1105,13 +1105,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2902860462898397</v>
+        <v>0.2970805864123808</v>
       </c>
       <c r="C31">
-        <v>0.9798925235952395</v>
+        <v>1.029127071504845</v>
       </c>
       <c r="D31">
-        <v>0.276335367931089</v>
+        <v>0.2764878134288318</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -1122,13 +1122,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5033084649679882</v>
+        <v>0.4780860724301164</v>
       </c>
       <c r="C32">
-        <v>-12.06657212350011</v>
+        <v>-11.91951211515883</v>
       </c>
       <c r="D32">
-        <v>0.4910125648638957</v>
+        <v>0.4656015786108902</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -1139,13 +1139,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.3283888484666228</v>
+        <v>0.3606593598977657</v>
       </c>
       <c r="C33">
-        <v>-0.0834192892442541</v>
+        <v>-0.08318341514396456</v>
       </c>
       <c r="D33">
-        <v>0.08071975959836</v>
+        <v>0.07966939841008562</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -1156,13 +1156,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>51.92254023600435</v>
+        <v>48.7051552547229</v>
       </c>
       <c r="C34">
-        <v>76.32972243369703</v>
+        <v>73.10128477213183</v>
       </c>
       <c r="D34">
-        <v>50.28662631880259</v>
+        <v>53.45230727220385</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -1173,13 +1173,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9259485595800356</v>
+        <v>0.9080400022474058</v>
       </c>
       <c r="C35">
-        <v>0.4883015200226778</v>
+        <v>0.4671388528710784</v>
       </c>
       <c r="D35">
-        <v>0.9486155873958541</v>
+        <v>0.9662158730730112</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
@@ -1190,13 +1190,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.521957187797231</v>
+        <v>3.450456877200672</v>
       </c>
       <c r="C36">
-        <v>3.688665406154842</v>
+        <v>3.625845248355285</v>
       </c>
       <c r="D36">
-        <v>3.328193668267037</v>
+        <v>3.391734281191898</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -1207,13 +1207,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.409988727981805</v>
+        <v>2.382874868027657</v>
       </c>
       <c r="C37">
-        <v>2.55208205435759</v>
+        <v>2.507273024432767</v>
       </c>
       <c r="D37">
-        <v>2.326250925766294</v>
+        <v>2.37118880824169</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
@@ -1224,13 +1224,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.703865183500826</v>
+        <v>4.572492255318838</v>
       </c>
       <c r="C38">
-        <v>-0.07863186473064744</v>
+        <v>-0.1300349388139211</v>
       </c>
       <c r="D38">
-        <v>4.822684550576093</v>
+        <v>4.876180784632005</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
@@ -1241,13 +1241,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9.646918039865984</v>
+        <v>9.488515864064929</v>
       </c>
       <c r="C39">
-        <v>-9.77399618102605</v>
+        <v>-9.943876333521377</v>
       </c>
       <c r="D39">
-        <v>9.345414808153954</v>
+        <v>9.448782230004191</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -1258,13 +1258,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.875670469543743</v>
+        <v>1.918462638578206</v>
       </c>
       <c r="C40">
-        <v>-2.019242974674515</v>
+        <v>-1.977731289798328</v>
       </c>
       <c r="D40">
-        <v>1.903210813636271</v>
+        <v>1.890031666975228</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
@@ -1275,13 +1275,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>51.94073077903295</v>
+        <v>50.14235284955705</v>
       </c>
       <c r="C41">
-        <v>76.52343578463699</v>
+        <v>74.45417077546631</v>
       </c>
       <c r="D41">
-        <v>50.15836513361833</v>
+        <v>52.33757979982937</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -1292,13 +1292,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9559266399667449</v>
+        <v>0.9217242480731769</v>
       </c>
       <c r="C42">
-        <v>0.5165856751007758</v>
+        <v>0.480953825295536</v>
       </c>
       <c r="D42">
-        <v>0.923627025937263</v>
+        <v>0.9524880306492872</v>
       </c>
       <c r="E42" t="s">
         <v>44</v>
@@ -1309,13 +1309,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.370826748423903</v>
+        <v>3.384312120755432</v>
       </c>
       <c r="C43">
-        <v>3.570450976556097</v>
+        <v>3.573717438876136</v>
       </c>
       <c r="D43">
-        <v>3.453835222166891</v>
+        <v>3.435669640415547</v>
       </c>
       <c r="E43" t="s">
         <v>45</v>
@@ -1326,13 +1326,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.406124392278318</v>
+        <v>2.365595138159512</v>
       </c>
       <c r="C44">
-        <v>2.535904416477579</v>
+        <v>2.494963551121686</v>
       </c>
       <c r="D44">
-        <v>2.337967669200979</v>
+        <v>2.376399722848121</v>
       </c>
       <c r="E44" t="s">
         <v>46</v>
@@ -1343,13 +1343,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.568841499276049</v>
+        <v>4.845938149369525</v>
       </c>
       <c r="C45">
-        <v>-0.1820158300014934</v>
+        <v>0.1129903279364434</v>
       </c>
       <c r="D45">
-        <v>4.933189947630647</v>
+        <v>4.638808593142945</v>
       </c>
       <c r="E45" t="s">
         <v>47</v>
@@ -1360,13 +1360,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>9.688206635482493</v>
+        <v>9.405687910209677</v>
       </c>
       <c r="C46">
-        <v>-9.796646060732732</v>
+        <v>-10.08348085626456</v>
       </c>
       <c r="D46">
-        <v>9.279599304704609</v>
+        <v>9.554601050947738</v>
       </c>
       <c r="E46" t="s">
         <v>48</v>
@@ -1377,13 +1377,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.989167737659777</v>
+        <v>1.904286427866734</v>
       </c>
       <c r="C47">
-        <v>-1.899182820384227</v>
+        <v>-1.987920591007706</v>
       </c>
       <c r="D47">
-        <v>1.808461733144943</v>
+        <v>1.892488849814385</v>
       </c>
       <c r="E47" t="s">
         <v>49</v>
@@ -1394,13 +1394,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>52.01315783119288</v>
+        <v>51.64501019293269</v>
       </c>
       <c r="C48">
-        <v>76.31756005000692</v>
+        <v>76.29074314471602</v>
       </c>
       <c r="D48">
-        <v>49.95017296706145</v>
+        <v>50.11841186152155</v>
       </c>
       <c r="E48" t="s">
         <v>50</v>
@@ -1411,13 +1411,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9251334418664974</v>
+        <v>0.9474384680229695</v>
       </c>
       <c r="C49">
-        <v>0.4816649591403908</v>
+        <v>0.5073317237357424</v>
       </c>
       <c r="D49">
-        <v>0.9525513807134971</v>
+        <v>0.932400620914388</v>
       </c>
       <c r="E49" t="s">
         <v>51</v>
@@ -1428,13 +1428,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.417313246692518</v>
+        <v>3.465002154079495</v>
       </c>
       <c r="C50">
-        <v>3.600262142063459</v>
+        <v>3.66142112140543</v>
       </c>
       <c r="D50">
-        <v>3.426738873704279</v>
+        <v>3.344450875279081</v>
       </c>
       <c r="E50" t="s">
         <v>52</v>
@@ -1445,13 +1445,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.406967616313096</v>
+        <v>2.396380279533397</v>
       </c>
       <c r="C51">
-        <v>2.526105525100333</v>
+        <v>2.522445405213572</v>
       </c>
       <c r="D51">
-        <v>2.354095851483135</v>
+        <v>2.346333056058465</v>
       </c>
       <c r="E51" t="s">
         <v>53</v>
@@ -1462,13 +1462,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.595113317179382</v>
+        <v>4.618614022408531</v>
       </c>
       <c r="C52">
-        <v>-0.175112070286802</v>
+        <v>-0.1169946352839705</v>
       </c>
       <c r="D52">
-        <v>4.909933226449632</v>
+        <v>4.852106715688632</v>
       </c>
       <c r="E52" t="s">
         <v>54</v>
@@ -1479,13 +1479,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9.027674437716682</v>
+        <v>9.065219725741226</v>
       </c>
       <c r="C53">
-        <v>-10.48353663262902</v>
+        <v>-10.43287426798258</v>
       </c>
       <c r="D53">
-        <v>9.948636524143497</v>
+        <v>9.883317065981757</v>
       </c>
       <c r="E53" t="s">
         <v>55</v>
@@ -1496,13 +1496,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.960713045016676</v>
+        <v>1.907781202369592</v>
       </c>
       <c r="C54">
-        <v>-1.931233369434515</v>
+        <v>-1.976235749589731</v>
       </c>
       <c r="D54">
-        <v>1.837820517353433</v>
+        <v>1.883479758833635</v>
       </c>
       <c r="E54" t="s">
         <v>56</v>
@@ -1513,13 +1513,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>49.40020827130704</v>
+        <v>49.35075175149422</v>
       </c>
       <c r="C55">
-        <v>73.83433684896853</v>
+        <v>73.25438478993485</v>
       </c>
       <c r="D55">
-        <v>52.41490896165499</v>
+        <v>53.12547917597057</v>
       </c>
       <c r="E55" t="s">
         <v>57</v>
@@ -1530,13 +1530,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9399158435741267</v>
+        <v>0.9118362062264624</v>
       </c>
       <c r="C56">
-        <v>0.507893603816302</v>
+        <v>0.4701751367415355</v>
       </c>
       <c r="D56">
-        <v>0.9338754158189864</v>
+        <v>0.9710770920238604</v>
       </c>
       <c r="E56" t="s">
         <v>58</v>
@@ -1547,13 +1547,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.408408015420923</v>
+        <v>3.397006813927349</v>
       </c>
       <c r="C57">
-        <v>3.591052214571232</v>
+        <v>3.589414873602065</v>
       </c>
       <c r="D57">
-        <v>3.406341064123632</v>
+        <v>3.431060486260416</v>
       </c>
       <c r="E57" t="s">
         <v>59</v>
@@ -1564,13 +1564,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.367091582037415</v>
+        <v>2.356909130186853</v>
       </c>
       <c r="C58">
-        <v>2.502713629900114</v>
+        <v>2.475042077786777</v>
       </c>
       <c r="D58">
-        <v>2.369675419632141</v>
+        <v>2.392221831364446</v>
       </c>
       <c r="E58" t="s">
         <v>60</v>
@@ -1581,13 +1581,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.827385189370111</v>
+        <v>4.618796764768177</v>
       </c>
       <c r="C59">
-        <v>0.1177717696388551</v>
+        <v>-0.1291276773879969</v>
       </c>
       <c r="D59">
-        <v>4.600956379720948</v>
+        <v>4.848037573247258</v>
       </c>
       <c r="E59" t="s">
         <v>61</v>
@@ -1598,13 +1598,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>9.561133776194806</v>
+        <v>9.767899952324571</v>
       </c>
       <c r="C60">
-        <v>-9.919731923007591</v>
+        <v>-9.702091989776042</v>
       </c>
       <c r="D60">
-        <v>9.375845857564183</v>
+        <v>9.219322326856188</v>
       </c>
       <c r="E60" t="s">
         <v>62</v>
@@ -1615,13 +1615,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.967317970881439</v>
+        <v>1.85524076151882</v>
       </c>
       <c r="C61">
-        <v>-1.93833807101692</v>
+        <v>-2.031167699165755</v>
       </c>
       <c r="D61">
-        <v>1.846567670811672</v>
+        <v>1.928599967282201</v>
       </c>
       <c r="E61" t="s">
         <v>63</v>
@@ -1632,13 +1632,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>50.69349612611229</v>
+        <v>53.22564573835297</v>
       </c>
       <c r="C62">
-        <v>75.05849168505297</v>
+        <v>77.70415774076561</v>
       </c>
       <c r="D62">
-        <v>51.40717136798429</v>
+        <v>48.73988068246761</v>
       </c>
       <c r="E62" t="s">
         <v>64</v>
@@ -1649,13 +1649,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9257064811240514</v>
+        <v>0.9425836262237525</v>
       </c>
       <c r="C63">
-        <v>0.4932773265778181</v>
+        <v>0.5039320500256221</v>
       </c>
       <c r="D63">
-        <v>0.94914230339577</v>
+        <v>0.9378027195563263</v>
       </c>
       <c r="E63" t="s">
         <v>65</v>
@@ -1666,13 +1666,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.334990785502997</v>
+        <v>3.476405515540554</v>
       </c>
       <c r="C64">
-        <v>3.51766940908671</v>
+        <v>3.663739390926845</v>
       </c>
       <c r="D64">
-        <v>3.474314851875026</v>
+        <v>3.347698035414163</v>
       </c>
       <c r="E64" t="s">
         <v>66</v>
@@ -1683,13 +1683,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.297257452621306</v>
+        <v>2.48021441767383</v>
       </c>
       <c r="C65">
-        <v>2.425693909817491</v>
+        <v>2.624911252982037</v>
       </c>
       <c r="D65">
-        <v>2.439983161899632</v>
+        <v>2.24749807930716</v>
       </c>
       <c r="E65" t="s">
         <v>67</v>
@@ -1700,13 +1700,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.837464229423582</v>
+        <v>4.728573746912855</v>
       </c>
       <c r="C66">
-        <v>0.1274223674956284</v>
+        <v>0.002540765474812771</v>
       </c>
       <c r="D66">
-        <v>4.614499335101679</v>
+        <v>4.733317061846947</v>
       </c>
       <c r="E66" t="s">
         <v>68</v>
@@ -1717,13 +1717,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.120379816838085</v>
+        <v>9.831213415590247</v>
       </c>
       <c r="C67">
-        <v>-10.4146310547284</v>
+        <v>-9.572746947222628</v>
       </c>
       <c r="D67">
-        <v>9.871056426480914</v>
+        <v>9.076713813741714</v>
       </c>
       <c r="E67" t="s">
         <v>69</v>
@@ -1734,13 +1734,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.918279542584174</v>
+        <v>1.924415225059596</v>
       </c>
       <c r="C68">
-        <v>-1.972845831087899</v>
+        <v>-1.97023590880573</v>
       </c>
       <c r="D68">
-        <v>1.875433028592658</v>
+        <v>1.869531046926145</v>
       </c>
       <c r="E68" t="s">
         <v>70</v>
@@ -1751,13 +1751,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>50.67774956324001</v>
+        <v>49.58054040507004</v>
       </c>
       <c r="C69">
-        <v>74.74587234332316</v>
+        <v>73.89458526793712</v>
       </c>
       <c r="D69">
-        <v>51.65432701169783</v>
+        <v>52.47566740835454</v>
       </c>
       <c r="E69" t="s">
         <v>71</v>

--- a/examples/1928+738/2024-12-13/Pol_LL/mf/model_params.xlsx
+++ b/examples/1928+738/2024-12-13/Pol_LL/mf/model_params.xlsx
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4678285041491246</v>
+        <v>0.4728975035061764</v>
       </c>
       <c r="C2">
-        <v>3.993011893981045</v>
+        <v>3.996637650028141</v>
       </c>
       <c r="D2">
-        <v>0.480536222705521</v>
+        <v>0.4778563376347194</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1740842691906259</v>
+        <v>0.09970553082985356</v>
       </c>
       <c r="C3">
-        <v>1.292517235745326</v>
+        <v>0.8858273231760128</v>
       </c>
       <c r="D3">
-        <v>0.219976487050255</v>
+        <v>0.1066851787928973</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -520,13 +520,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1480785500941625</v>
+        <v>0.1185249278507054</v>
       </c>
       <c r="C4">
-        <v>0.1786325522652215</v>
+        <v>0.1983871899057054</v>
       </c>
       <c r="D4">
-        <v>0.07629320319523153</v>
+        <v>0.06396919993270811</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -537,13 +537,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3264962684671358</v>
+        <v>0.2580211840508662</v>
       </c>
       <c r="C5">
-        <v>-2.097088383589516</v>
+        <v>-1.239154553154706</v>
       </c>
       <c r="D5">
-        <v>0.2810093235816757</v>
+        <v>0.2488865472912275</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -554,13 +554,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.504108194111815</v>
+        <v>4.815280177175858</v>
       </c>
       <c r="C6">
-        <v>42.1549773042894</v>
+        <v>51.98488981112322</v>
       </c>
       <c r="D6">
-        <v>4.540093546875809</v>
+        <v>3.284263019306174</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -571,13 +571,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1197965974357338</v>
+        <v>0.4697258984432518</v>
       </c>
       <c r="C7">
-        <v>-0.1142677899689952</v>
+        <v>0.004935685837384684</v>
       </c>
       <c r="D7">
-        <v>0.08362218811920101</v>
+        <v>0.4708336857306232</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -588,13 +588,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0111556541875542</v>
+        <v>0.09224684302560693</v>
       </c>
       <c r="C8">
-        <v>0.1319836314277361</v>
+        <v>2.3635883651718</v>
       </c>
       <c r="D8">
-        <v>0.0115642545623853</v>
+        <v>0.08575155953818214</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -605,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2770846627963897</v>
+        <v>0.03786193025965745</v>
       </c>
       <c r="C9">
-        <v>2.73550926279556</v>
+        <v>0.3308637689147709</v>
       </c>
       <c r="D9">
-        <v>0.2239895988305443</v>
+        <v>0.03310345287010213</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07879957378246605</v>
+        <v>0.009035744410040118</v>
       </c>
       <c r="C10">
-        <v>1.895087714330256</v>
+        <v>0.0203617831625548</v>
       </c>
       <c r="D10">
-        <v>0.0807837522395316</v>
+        <v>0.009292803156448919</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -639,13 +639,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1207085077544354</v>
+        <v>0.007502495872328208</v>
       </c>
       <c r="C11">
-        <v>-6.862785056868689</v>
+        <v>-0.5100336730674655</v>
       </c>
       <c r="D11">
-        <v>0.1280627239908263</v>
+        <v>0.007779745401978899</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -656,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1789309268579613</v>
+        <v>0.0644245098757994</v>
       </c>
       <c r="C12">
-        <v>-1.493661994129066</v>
+        <v>-0.9652736697665389</v>
       </c>
       <c r="D12">
-        <v>0.1656001919624961</v>
+        <v>0.06963406505565639</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -673,13 +673,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>49.20040343684843</v>
+        <v>52.78796682732624</v>
       </c>
       <c r="C13">
-        <v>73.47194881763188</v>
+        <v>77.41210968513532</v>
       </c>
       <c r="D13">
-        <v>52.84079092990825</v>
+        <v>49.4013148004604</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -690,13 +690,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4663723476125565</v>
+        <v>0.4726616090154161</v>
       </c>
       <c r="C14">
-        <v>0.001983237950295498</v>
+        <v>0.007410560213431738</v>
       </c>
       <c r="D14">
-        <v>0.4734582996675329</v>
+        <v>0.4652917291752771</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -707,13 +707,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3274800659040902</v>
+        <v>0.02681171516388589</v>
       </c>
       <c r="C15">
-        <v>3.875759297814858</v>
+        <v>0.1931851794414397</v>
       </c>
       <c r="D15">
-        <v>0.2799890266739147</v>
+        <v>0.03113733323671444</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -724,13 +724,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.05146949159794428</v>
+        <v>0.1246356503386162</v>
       </c>
       <c r="C16">
-        <v>0.3510428190754782</v>
+        <v>0.1306018759867514</v>
       </c>
       <c r="D16">
-        <v>0.03930584606971727</v>
+        <v>0.2796340865148341</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -741,13 +741,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.009677517177888381</v>
+        <v>0.05393555284418911</v>
       </c>
       <c r="C17">
-        <v>0.02993693034086315</v>
+        <v>0.466029611936529</v>
       </c>
       <c r="D17">
-        <v>0.009710355917020665</v>
+        <v>0.05952596073475691</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -758,13 +758,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.008599954309636337</v>
+        <v>0.112974722727448</v>
       </c>
       <c r="C18">
-        <v>-0.5057549489277482</v>
+        <v>-1.956187766600396</v>
       </c>
       <c r="D18">
-        <v>0.00750034994644172</v>
+        <v>0.1107687488543336</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -775,13 +775,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1142550721776712</v>
+        <v>0.1109470252523339</v>
       </c>
       <c r="C19">
-        <v>-1.581123515318597</v>
+        <v>-2.867760821292422</v>
       </c>
       <c r="D19">
-        <v>0.1141414563490641</v>
+        <v>0.1348209049685232</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -792,13 +792,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>50.49329913495234</v>
+        <v>51.23948925877342</v>
       </c>
       <c r="C20">
-        <v>74.90812185244994</v>
+        <v>75.70414594769878</v>
       </c>
       <c r="D20">
-        <v>51.4168847074217</v>
+        <v>50.91426654592331</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -809,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4657422951303939</v>
+        <v>0.4616934454945213</v>
       </c>
       <c r="C21">
-        <v>0.001173544390636043</v>
+        <v>-0.002127966832019436</v>
       </c>
       <c r="D21">
-        <v>0.4734771405303658</v>
+        <v>0.4760680316697312</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -826,13 +826,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.06425564284487234</v>
+        <v>0.003563735317328898</v>
       </c>
       <c r="C22">
-        <v>0.2654141077472979</v>
+        <v>0.07967482424665565</v>
       </c>
       <c r="D22">
-        <v>0.08183278818422612</v>
+        <v>0.003237730127949298</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -843,13 +843,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3047865655859655</v>
+        <v>0.1551465549290314</v>
       </c>
       <c r="C23">
-        <v>0.3212941007183022</v>
+        <v>2.919587953379728</v>
       </c>
       <c r="D23">
-        <v>0.486384111648872</v>
+        <v>0.07595427636121022</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -860,13 +860,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08753840459264783</v>
+        <v>0.04672971413274252</v>
       </c>
       <c r="C24">
-        <v>0.5821722322860187</v>
+        <v>1.94876494760595</v>
       </c>
       <c r="D24">
-        <v>0.1071633549921772</v>
+        <v>0.04802799465485519</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -877,13 +877,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2152769622399782</v>
+        <v>0.06718010531258933</v>
       </c>
       <c r="C25">
-        <v>-2.002626324448603</v>
+        <v>-6.876221915570392</v>
       </c>
       <c r="D25">
-        <v>0.2189260860016649</v>
+        <v>0.06862683058789454</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -894,13 +894,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1828192247026474</v>
+        <v>0.1581884642631199</v>
       </c>
       <c r="C26">
-        <v>-3.805193666520429</v>
+        <v>-1.266386124224097</v>
       </c>
       <c r="D26">
-        <v>0.3171619330882107</v>
+        <v>0.1486111164597612</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -911,13 +911,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>51.78080840888163</v>
+        <v>50.58262003966799</v>
       </c>
       <c r="C27">
-        <v>76.1477773060181</v>
+        <v>74.82354592128608</v>
       </c>
       <c r="D27">
-        <v>50.47719354192313</v>
+        <v>51.57880462776637</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
